--- a/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
+++ b/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linigodelacruz\Documents\4TU.ResearchData\Projects\Git-lesson-4TU-members\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA9CDF-E842-4B3C-8C8D-096F182E0EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF90FD-6572-48AE-84AF-2C874BC59FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Helpers" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$30</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="190">
   <si>
     <t>Order ID</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Workshop on Versioning Control with Git</t>
   </si>
   <si>
-    <t>aslihan.ural@wur.nl</t>
-  </si>
-  <si>
     <t>Zhang</t>
   </si>
   <si>
@@ -152,15 +149,9 @@
     <t>l.shamsashkezari@tudelft.nl</t>
   </si>
   <si>
-    <t>Ang</t>
-  </si>
-  <si>
     <t>Li</t>
   </si>
   <si>
-    <t>A.Li-2@tudelft.nl</t>
-  </si>
-  <si>
     <t>Somadutta</t>
   </si>
   <si>
@@ -212,12 +203,6 @@
     <t>Leila</t>
   </si>
   <si>
-    <t>Aslihan</t>
-  </si>
-  <si>
-    <t>Ural Janssen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
@@ -299,9 +284,6 @@
     <t>TUD ticket</t>
   </si>
   <si>
-    <t>1/30/24 11:01 PM</t>
-  </si>
-  <si>
     <t>1/30/24 11:04 PM</t>
   </si>
   <si>
@@ -359,9 +341,6 @@
     <t>1/30/24 11:39 PM</t>
   </si>
   <si>
-    <t>1/30/24 11:41 PM</t>
-  </si>
-  <si>
     <t>Pre Workshop Email</t>
   </si>
   <si>
@@ -383,12 +362,6 @@
     <t>Potential helper for next time</t>
   </si>
   <si>
-    <t>Cancelled on 07022024</t>
-  </si>
-  <si>
-    <t>Cancelled on 06022024</t>
-  </si>
-  <si>
     <t>Francisco</t>
   </si>
   <si>
@@ -405,6 +378,222 @@
   </si>
   <si>
     <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>2/7/24 10:49 AM</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Chen-Zijlstra</t>
+  </si>
+  <si>
+    <t>y.y.chen.zijlstra@tue.nl</t>
+  </si>
+  <si>
+    <t>2/8/24 8:37 AM</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>s.yadav-1@tudelft.nl</t>
+  </si>
+  <si>
+    <t>2/8/24 9:40 AM</t>
+  </si>
+  <si>
+    <t>Mladen</t>
+  </si>
+  <si>
+    <t>Gagic</t>
+  </si>
+  <si>
+    <t>m.gagic@tudelft.nl</t>
+  </si>
+  <si>
+    <t>Hitesh</t>
+  </si>
+  <si>
+    <t>Dialani</t>
+  </si>
+  <si>
+    <t>h.dialani@tudelft.nl</t>
+  </si>
+  <si>
+    <t>2/8/24 3:49 PM</t>
+  </si>
+  <si>
+    <t>Aryan Shyam</t>
+  </si>
+  <si>
+    <t>Savant</t>
+  </si>
+  <si>
+    <t>a.s.savant@student.tue.nl</t>
+  </si>
+  <si>
+    <t>2/8/24 4:26 PM</t>
+  </si>
+  <si>
+    <t>Douwe</t>
+  </si>
+  <si>
+    <t>Orij</t>
+  </si>
+  <si>
+    <t>d.r.orij@tue.nl</t>
+  </si>
+  <si>
+    <t>2/9/24 10:18 AM</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>y.song@tue.nl</t>
+  </si>
+  <si>
+    <t>2/9/24 11:18 AM</t>
+  </si>
+  <si>
+    <t>Ligaya Maria</t>
+  </si>
+  <si>
+    <t>Wopereis</t>
+  </si>
+  <si>
+    <t>l.m.wopereis@tudelft.nl</t>
+  </si>
+  <si>
+    <t>2/9/24 1:24 PM</t>
+  </si>
+  <si>
+    <t>Waldo</t>
+  </si>
+  <si>
+    <t>de Boer</t>
+  </si>
+  <si>
+    <t>waldo.deboer@wur.nl</t>
+  </si>
+  <si>
+    <t>2/10/24 9:29 PM</t>
+  </si>
+  <si>
+    <t>Yiping</t>
+  </si>
+  <si>
+    <t>liyiping2000@gmail.com</t>
+  </si>
+  <si>
+    <t>2/11/24 5:06 PM</t>
+  </si>
+  <si>
+    <t>Ajith</t>
+  </si>
+  <si>
+    <t>Subramanian</t>
+  </si>
+  <si>
+    <t>ajjitth@gmail.com</t>
+  </si>
+  <si>
+    <t>2/11/24 5:56 PM</t>
+  </si>
+  <si>
+    <t>Jessie</t>
+  </si>
+  <si>
+    <t>Cheung</t>
+  </si>
+  <si>
+    <t>j.cheung_1@tilburguniversity.edu</t>
+  </si>
+  <si>
+    <t>2/12/24 8:11 AM</t>
+  </si>
+  <si>
+    <t>Massimo</t>
+  </si>
+  <si>
+    <t>Manca</t>
+  </si>
+  <si>
+    <t>m.manca@tue.nl</t>
+  </si>
+  <si>
+    <t>2/13/24 10:18 AM</t>
+  </si>
+  <si>
+    <t>Roya</t>
+  </si>
+  <si>
+    <t>Nasiri</t>
+  </si>
+  <si>
+    <t>rnaser917@gmail.com</t>
+  </si>
+  <si>
+    <t>2/14/24 8:48 AM</t>
+  </si>
+  <si>
+    <t>Shunqiang</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>s.xu-1@utwente.nl</t>
+  </si>
+  <si>
+    <t>2/14/24 11:37 AM</t>
+  </si>
+  <si>
+    <t>Konstantina</t>
+  </si>
+  <si>
+    <t>Apostolopoulou</t>
+  </si>
+  <si>
+    <t>k.apostolopoulou@hua.gr</t>
+  </si>
+  <si>
+    <t>2/14/24 2:47 PM</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>dcampbel@mta.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souren </t>
+  </si>
+  <si>
+    <t>l.h.f.souren@tue.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue ticket </t>
+  </si>
+  <si>
+    <t>Included because his special interest 16022024</t>
+  </si>
+  <si>
+    <t>To be sent on 16022024</t>
   </si>
 </sst>
 </file>
@@ -434,15 +623,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="10"/>
+      <color rgb="FF1F3864"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1F3864"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,11 +677,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -499,11 +689,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -513,13 +718,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -821,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,13 +1039,13 @@
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -863,114 +1068,111 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>8814420319</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>8814465279</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>8814474079</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>8814483529</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>8814441169</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8814465279</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>8814474079</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
@@ -985,21 +1187,21 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>8814483529</v>
+        <v>8814492229</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
@@ -1014,21 +1216,21 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>8814500919</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>8814492229</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>51</v>
@@ -1043,417 +1245,914 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8814500919</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8814575379</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8814581949</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8814589389</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8814596599</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8814604539</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8814614319</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>8926094819</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>8814684199</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>8870698769</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>8878674479</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>8878863769</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>8880717459</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>8881020689</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>8887409269</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>8887653009</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="I24" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>8888178649</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>8898349569</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>8903472759</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>8903770049</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>8814698679</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>8814705169</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>8814684199</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>8907214689</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>8916107239</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>8924542669</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>8925216049</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>8814691029</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>8814698679</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>8814705169</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>8814715079</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>8878866459</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>126</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>8887653009</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1" xr:uid="{4C5892EC-CA16-4323-8915-AC63C7B2937F}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{4C5892EC-CA16-4323-8915-AC63C7B2937F}"/>
+    <hyperlink ref="F17" r:id="rId2" display="mailto:l.h.f.souren@tue.nl" xr:uid="{275A22F4-5C90-437C-86BF-516131934327}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1475,104 +2174,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
+++ b/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linigodelacruz\Documents\4TU.ResearchData\Projects\Git-lesson-4TU-members\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF90FD-6572-48AE-84AF-2C874BC59FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50281CB-38BC-4D7D-9E2D-99256442C926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="215">
   <si>
     <t>Order ID</t>
   </si>
@@ -594,13 +594,88 @@
   </si>
   <si>
     <t>To be sent on 16022024</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled </t>
+  </si>
+  <si>
+    <t>yanjiao.mi-gegotek@wur.nl</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t>Gegotek</t>
+  </si>
+  <si>
+    <t>qi.zhang@wur.nl</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>ilaria.micella@wur.nl</t>
+  </si>
+  <si>
+    <t>Ilaria</t>
+  </si>
+  <si>
+    <t>Micella</t>
+  </si>
+  <si>
+    <t>Waiting response</t>
+  </si>
+  <si>
+    <t>Waiting list inclusions</t>
+  </si>
+  <si>
+    <t>Date: 1902204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUR </t>
+  </si>
+  <si>
+    <t>To be sent on 1902204</t>
+  </si>
+  <si>
+    <t>Mirjam.bak@wur.nl</t>
+  </si>
+  <si>
+    <t>Bak</t>
+  </si>
+  <si>
+    <t>Mirjam</t>
+  </si>
+  <si>
+    <t>bowen.tai@wur.nl</t>
+  </si>
+  <si>
+    <t>Tai</t>
+  </si>
+  <si>
+    <t>Bowen</t>
+  </si>
+  <si>
+    <t>To be sent on 2002204</t>
+  </si>
+  <si>
+    <t>a.m.a.menendezagudin@tudelft.nl</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Menendez Agudin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,8 +712,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +762,11 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -705,12 +792,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -722,8 +810,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,19 +1117,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
@@ -1164,33 +1255,36 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>8814483529</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>106</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,34 +1316,37 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>8814500919</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="J7" s="10" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
@@ -1261,7 +1358,7 @@
       <c r="E8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1270,7 +1367,7 @@
       <c r="H8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="8" t="s">
         <v>189</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1335,33 +1432,36 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>8814589389</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>92</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>106</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1467,7 +1567,7 @@
       <c r="E15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>183</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1476,7 +1576,7 @@
       <c r="H15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1509,7 +1609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="6" t="s">
         <v>84</v>
       </c>
@@ -1528,14 +1628,14 @@
       <c r="H17" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="8" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8870698769</v>
       </c>
@@ -1560,11 +1660,11 @@
       <c r="H18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>8878674479</v>
       </c>
@@ -1589,11 +1689,11 @@
       <c r="H19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>8878863769</v>
       </c>
@@ -1618,11 +1718,11 @@
       <c r="H20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>8880717459</v>
       </c>
@@ -1647,11 +1747,11 @@
       <c r="H21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>8881020689</v>
       </c>
@@ -1676,11 +1776,11 @@
       <c r="H22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>8887409269</v>
       </c>
@@ -1705,11 +1805,11 @@
       <c r="H23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>8887653009</v>
       </c>
@@ -1734,11 +1834,11 @@
       <c r="H24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>8888178649</v>
       </c>
@@ -1763,11 +1863,11 @@
       <c r="H25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>8898349569</v>
       </c>
@@ -1792,11 +1892,11 @@
       <c r="H26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>8903472759</v>
       </c>
@@ -1821,37 +1921,40 @@
       <c r="H27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <v>8903770049</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="8" t="s">
         <v>189</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1912,36 +2015,39 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>8907214689</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>8916107239</v>
       </c>
@@ -1966,11 +2072,11 @@
       <c r="H32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>8924542669</v>
       </c>
@@ -1995,11 +2101,11 @@
       <c r="H33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>8925216049</v>
       </c>
@@ -2024,7 +2130,7 @@
       <c r="H34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="8" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2057,7 +2163,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>8878866459</v>
       </c>
@@ -2082,11 +2188,11 @@
       <c r="H36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>8887653009</v>
       </c>
@@ -2111,38 +2217,206 @@
       <c r="H37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" t="s">
+    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2150,9 +2424,12 @@
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{4C5892EC-CA16-4323-8915-AC63C7B2937F}"/>
     <hyperlink ref="F17" r:id="rId2" display="mailto:l.h.f.souren@tue.nl" xr:uid="{275A22F4-5C90-437C-86BF-516131934327}"/>
+    <hyperlink ref="F15" r:id="rId3" xr:uid="{4C7EF2A5-E72D-44EA-8378-F847F2AB96EF}"/>
+    <hyperlink ref="F50" r:id="rId4" xr:uid="{9371EBBC-14E6-461A-A1FE-CA27FFCFF32F}"/>
+    <hyperlink ref="F51" r:id="rId5" xr:uid="{E4960138-8048-4ED6-B5BC-A11B069F8025}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
+++ b/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linigodelacruz\Documents\4TU.ResearchData\Projects\Git-lesson-4TU-members\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50281CB-38BC-4D7D-9E2D-99256442C926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CC9D9-EC34-48F0-B51C-C78CDE27ADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="222">
   <si>
     <t>Order ID</t>
   </si>
@@ -669,6 +669,27 @@
   </si>
   <si>
     <t>Menendez Agudin</t>
+  </si>
+  <si>
+    <t>t.yildizli@tudelft.nl</t>
+  </si>
+  <si>
+    <t>Z.P.Oikonomou@tudelft.nl</t>
+  </si>
+  <si>
+    <t>Yildizli</t>
+  </si>
+  <si>
+    <t>Tugba</t>
+  </si>
+  <si>
+    <t>Not responded in time</t>
+  </si>
+  <si>
+    <t>Oikonomou</t>
+  </si>
+  <si>
+    <t>Zacharias Panagiotis</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,8 +2288,8 @@
       <c r="A46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>200</v>
+      <c r="C46" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>193</v>
@@ -2293,8 +2314,8 @@
       <c r="A47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>200</v>
+      <c r="C47" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>196</v>
@@ -2319,8 +2340,8 @@
       <c r="A48" s="2">
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>200</v>
+      <c r="C48" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>198</v>
@@ -2345,8 +2366,8 @@
       <c r="A49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>200</v>
+      <c r="C49" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>207</v>
@@ -2393,7 +2414,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>6</v>
       </c>
@@ -2415,10 +2436,63 @@
       <c r="H51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="8" t="s">
         <v>211</v>
       </c>
     </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
+++ b/Workshop_on_Versioning_Control_with_Git_Attendee_Summary_Report_Excel.xlsx
@@ -8,23 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linigodelacruz\Documents\4TU.ResearchData\Projects\Git-lesson-4TU-members\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785CC9D9-EC34-48F0-B51C-C78CDE27ADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19095D63-5384-480C-8A28-FE425861C66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Helpers" sheetId="8" r:id="rId2"/>
+    <sheet name="stats" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$L$60</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="232">
   <si>
     <t>Order ID</t>
   </si>
@@ -629,12 +643,6 @@
     <t>Waiting response</t>
   </si>
   <si>
-    <t>Waiting list inclusions</t>
-  </si>
-  <si>
-    <t>Date: 1902204</t>
-  </si>
-  <si>
     <t xml:space="preserve">WUR </t>
   </si>
   <si>
@@ -690,6 +698,42 @@
   </si>
   <si>
     <t>Zacharias Panagiotis</t>
+  </si>
+  <si>
+    <t>Assistance</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Actual institution</t>
+  </si>
+  <si>
+    <t>TUe</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Other (UVA)</t>
+  </si>
+  <si>
+    <t>Other(Ecolonical LAB | Urban &amp; Territorial Data Science)</t>
+  </si>
+  <si>
+    <t>Other (Harokopio University of Athens)</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Institution</t>
   </si>
 </sst>
 </file>
@@ -819,7 +863,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -833,6 +877,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -851,6 +897,902 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Participants</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>stats!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>TUD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WUR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stats!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8609-49A8-BD1A-9D73096E638A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="471241504"/>
+        <c:axId val="307853328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471241504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307853328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="307853328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471241504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F65A4E5-D816-27FF-BF0B-710F4A31644D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,26 +2080,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
     <col min="2" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.7265625" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1188,8 +2133,14 @@
       <c r="J1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>8814420319</v>
       </c>
@@ -1217,8 +2168,14 @@
       <c r="I2" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>8814465279</v>
       </c>
@@ -1246,8 +2203,14 @@
       <c r="I3" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>8814474079</v>
       </c>
@@ -1276,7 +2239,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>8814483529</v>
       </c>
@@ -1308,7 +2271,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>8814492229</v>
       </c>
@@ -1336,8 +2299,14 @@
       <c r="I6" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>8814500919</v>
       </c>
@@ -1369,7 +2338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
@@ -1395,7 +2364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8814575379</v>
       </c>
@@ -1423,8 +2392,14 @@
       <c r="I9" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8814581949</v>
       </c>
@@ -1452,8 +2427,14 @@
       <c r="I10" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>8814589389</v>
       </c>
@@ -1485,7 +2466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8814596599</v>
       </c>
@@ -1514,7 +2495,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>8814604539</v>
       </c>
@@ -1542,8 +2523,14 @@
       <c r="I13" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8814614319</v>
       </c>
@@ -1571,8 +2558,14 @@
       <c r="I14" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>8926094819</v>
       </c>
@@ -1601,7 +2594,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>8814684199</v>
       </c>
@@ -1629,8 +2622,14 @@
       <c r="I16" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="6" t="s">
         <v>84</v>
       </c>
@@ -1655,8 +2654,14 @@
       <c r="J17" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>8870698769</v>
       </c>
@@ -1684,8 +2689,14 @@
       <c r="I18" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>8878674479</v>
       </c>
@@ -1714,7 +2725,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="6" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>8878863769</v>
       </c>
@@ -1742,8 +2753,14 @@
       <c r="I20" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>8880717459</v>
       </c>
@@ -1772,7 +2789,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="6" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>8881020689</v>
       </c>
@@ -1801,7 +2818,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="6" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>8887409269</v>
       </c>
@@ -1830,7 +2847,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>8887653009</v>
       </c>
@@ -1859,7 +2876,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>8888178649</v>
       </c>
@@ -1887,8 +2904,14 @@
       <c r="I25" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>8898349569</v>
       </c>
@@ -1916,8 +2939,14 @@
       <c r="I26" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>8903472759</v>
       </c>
@@ -1946,7 +2975,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <v>8903770049</v>
       </c>
@@ -1977,8 +3006,9 @@
       <c r="J28" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>8814698679</v>
       </c>
@@ -2006,8 +3036,14 @@
       <c r="I29" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>8814705169</v>
       </c>
@@ -2023,7 +3059,7 @@
       <c r="E30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="4" t="s">
@@ -2035,8 +3071,14 @@
       <c r="I30" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
         <v>8907214689</v>
       </c>
@@ -2067,8 +3109,9 @@
       <c r="J31" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>8916107239</v>
       </c>
@@ -2096,8 +3139,14 @@
       <c r="I32" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>8924542669</v>
       </c>
@@ -2125,8 +3174,14 @@
       <c r="I33" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="3" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>8925216049</v>
       </c>
@@ -2154,8 +3209,14 @@
       <c r="I34" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="3" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>8814691029</v>
       </c>
@@ -2184,7 +3245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="3" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>8878866459</v>
       </c>
@@ -2213,7 +3274,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="3" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>8887653009</v>
       </c>
@@ -2242,268 +3303,294 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" t="s">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s">
+      <c r="I43" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" t="s">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" t="s">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>2</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>3</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>4</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <autoFilter ref="A1:L60" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{4C5892EC-CA16-4323-8915-AC63C7B2937F}"/>
     <hyperlink ref="F17" r:id="rId2" display="mailto:l.h.f.souren@tue.nl" xr:uid="{275A22F4-5C90-437C-86BF-516131934327}"/>
     <hyperlink ref="F15" r:id="rId3" xr:uid="{4C7EF2A5-E72D-44EA-8378-F847F2AB96EF}"/>
-    <hyperlink ref="F50" r:id="rId4" xr:uid="{9371EBBC-14E6-461A-A1FE-CA27FFCFF32F}"/>
-    <hyperlink ref="F51" r:id="rId5" xr:uid="{E4960138-8048-4ED6-B5BC-A11B069F8025}"/>
+    <hyperlink ref="F42" r:id="rId4" xr:uid="{9371EBBC-14E6-461A-A1FE-CA27FFCFF32F}"/>
+    <hyperlink ref="F43" r:id="rId5" xr:uid="{E4960138-8048-4ED6-B5BC-A11B069F8025}"/>
+    <hyperlink ref="F30" r:id="rId6" xr:uid="{9B40C9A8-344B-482A-B635-51C30959666C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2515,15 +3602,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -2534,7 +3621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -2545,7 +3632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -2556,7 +3643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -2567,7 +3654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
@@ -2578,7 +3665,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -2589,7 +3676,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -2600,7 +3687,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2611,7 +3698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -2631,4 +3718,78 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B7B230-EDE5-4B3C-891A-D56200CEC6C6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f>SUM(A2:A6)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>